--- a/medicine/Psychotrope/Léon_Millot_(cépage)/Léon_Millot_(cépage).xlsx
+++ b/medicine/Psychotrope/Léon_Millot_(cépage)/Léon_Millot_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Millot_(c%C3%A9page)</t>
+          <t>Léon_Millot_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Léon Millot est un cépage de raisins noirs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Millot_(c%C3%A9page)</t>
+          <t>Léon_Millot_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Léon Millot a été obtenu par Eugène Kuhlmann vers 1911 en croisant (Vitis riparia × Vitis rupestris) × Goldriesling dans les installations de l'Institut Viticole Oberlin à Colmar en Alsace. Il a été commercialisé à partir de 1921.
 Le cépage est un hybride avec des parentages de Vitis vinifera, Vitis riparia et Vitis rupestris.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Millot_(c%C3%A9page)</t>
+          <t>Léon_Millot_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque précoce : 5 - 6 jours avant le chasselas.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Millot_(c%C3%A9page)</t>
+          <t>Léon_Millot_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont petites et les baies sont de taille petite. La grappe est cylindrique, ailée et lâche. Le cépage est vigoureux et s'il est conduit à taille longue, la fertilité assez bonne et régulière. Il est assez résistant au mildiou mais il craint l'oïdium.
 Le vin rouge est de bonne qualité.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Millot_(c%C3%A9page)</t>
+          <t>Léon_Millot_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Léon Millot est connu sous les noms 194-2 Kuhlmann, Frühe Schwarze et Millot.
 </t>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Millot_(c%C3%A9page)</t>
+          <t>Léon_Millot_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Colonie de vacances de Mandres-sur-Vair</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1886, Léon Millot rencontre le Maire de Popincourt (XIe arrondissement de Paris). Celui-ci recherche un endroit pour organiser des loisirs pour les enfants défavorisés. Grâce à Léon Millot, les premiers colons arrivent en 1889 dans le château de Mandres-sur-Vair, désormais colonie de vacances sanitaire pour la caisse des écoles du XIe arrondissement. Durant plusieurs décennies, des milliers d’enfants parisiens viendront à Mandres-sur-Vair pour les vacances d’été inaugurant les premiers séjours collectifs.
 Léon Millot édite plusieurs séries de cartes postales de la colonie de Mandres-sur-Vair.
